--- a/設計書/基本設計/タスク管理/タスク追加.xlsx
+++ b/設計書/基本設計/タスク管理/タスク追加.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="100">
   <si>
     <t>(1)タスクフォーム</t>
     <phoneticPr fontId="2"/>
@@ -764,13 +764,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Boolean型</t>
-    <rPh sb="7" eb="8">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>選択された通知を新たな通知として設定する。</t>
     <rPh sb="0" eb="2">
       <t>センタク</t>
@@ -957,14 +950,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>start_datetime,</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>end_datetime,</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>detail,</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1053,6 +1038,32 @@
   </si>
   <si>
     <t>off(false)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>論理型</t>
+    <rPh sb="0" eb="2">
+      <t>ロンリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>start_date,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>end_date,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>start_date,</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>end_date,</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1783,7 +1794,7 @@
   <sheetData>
     <row r="2" spans="2:18" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.15">
@@ -1831,7 +1842,7 @@
         <v>8</v>
       </c>
       <c r="R16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="17:18" x14ac:dyDescent="0.15">
@@ -1846,7 +1857,7 @@
     </row>
     <row r="19" spans="17:18" x14ac:dyDescent="0.15">
       <c r="R19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="17:18" x14ac:dyDescent="0.15">
@@ -1895,7 +1906,7 @@
   <sheetData>
     <row r="2" spans="2:43" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:43" x14ac:dyDescent="0.15">
@@ -1964,7 +1975,7 @@
     </row>
     <row r="6" spans="2:43" x14ac:dyDescent="0.15">
       <c r="B6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -2036,7 +2047,7 @@
       <c r="M9" s="10"/>
       <c r="N9" s="11"/>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AQ9" s="11"/>
     </row>
@@ -2163,7 +2174,7 @@
       <c r="M16" s="10"/>
       <c r="N16" s="11"/>
       <c r="Q16" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ16" s="11"/>
     </row>
@@ -2220,7 +2231,7 @@
       <c r="M19" s="10"/>
       <c r="N19" s="11"/>
       <c r="Q19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AQ19" s="11"/>
     </row>
@@ -2377,7 +2388,7 @@
         <v>18</v>
       </c>
       <c r="P26" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
@@ -2470,7 +2481,7 @@
   <sheetData>
     <row r="2" spans="2:57" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:57" ht="17.25" x14ac:dyDescent="0.2">
@@ -2531,7 +2542,7 @@
       <c r="AQ6" s="4"/>
       <c r="AR6" s="4"/>
       <c r="AS6" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AT6" s="4"/>
       <c r="AU6" s="4"/>
@@ -2608,7 +2619,7 @@
       <c r="U8" s="2"/>
       <c r="AS8" s="9"/>
       <c r="AT8" s="10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AU8" s="10"/>
       <c r="AV8" s="10"/>
@@ -2747,7 +2758,7 @@
       </c>
       <c r="AS11" s="9"/>
       <c r="AT11" s="10" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AU11" s="10"/>
       <c r="AV11" s="10"/>
@@ -2923,7 +2934,7 @@
       </c>
       <c r="AS15" s="9"/>
       <c r="AT15" s="10" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AU15" s="10"/>
       <c r="AV15" s="10"/>
@@ -3272,7 +3283,7 @@
       <c r="AR22" s="10"/>
       <c r="AS22" s="9"/>
       <c r="AT22" s="10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="AU22" s="10"/>
       <c r="AV22" s="10"/>
@@ -3640,7 +3651,7 @@
       <c r="AR28" s="11"/>
       <c r="AS28" s="9"/>
       <c r="AT28" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AU28" s="10"/>
       <c r="AV28" s="10"/>
@@ -3731,7 +3742,7 @@
   <sheetData>
     <row r="2" spans="2:48" ht="18.75" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="2:48" ht="17.25" x14ac:dyDescent="0.2">
@@ -4588,7 +4599,7 @@
       <c r="G26" s="10"/>
       <c r="H26" s="10"/>
       <c r="I26" s="9" t="s">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J26" s="10"/>
       <c r="K26" s="10"/>
@@ -4604,7 +4615,7 @@
       <c r="S26" s="11"/>
       <c r="T26" s="10"/>
       <c r="U26" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="V26" s="10"/>
       <c r="W26" s="10"/>
@@ -4722,7 +4733,7 @@
     </row>
     <row r="29" spans="2:48" x14ac:dyDescent="0.15">
       <c r="B29" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -4731,7 +4742,7 @@
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
       <c r="I29" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -4739,7 +4750,7 @@
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
       <c r="O29" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
@@ -4747,7 +4758,7 @@
       <c r="S29" s="11"/>
       <c r="T29" s="10"/>
       <c r="U29" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
@@ -4820,117 +4831,117 @@
     </row>
     <row r="32" spans="2:48" ht="17.25" x14ac:dyDescent="0.2">
       <c r="B32" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E36" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E37" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E38" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E39" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E40" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E41" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E42" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E43" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B45" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E46" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E47" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.15">
       <c r="E48" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E49" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E50" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E51" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="54" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E54" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55" spans="5:5" x14ac:dyDescent="0.15">
       <c r="E55" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
